--- a/Quiz.Web.UI/Files/Template/SampleUserList.xlsx
+++ b/Quiz.Web.UI/Files/Template/SampleUserList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIGNESH SUNDAR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\QuizApp\QuizApp\Quiz.Web.UI\Files\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -48,36 +48,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>CustomField1</t>
-  </si>
-  <si>
-    <t>CustomField2</t>
-  </si>
-  <si>
-    <t>CustomField3</t>
-  </si>
-  <si>
-    <t>CustomField4</t>
-  </si>
-  <si>
-    <t>CustomField5</t>
-  </si>
-  <si>
-    <t>CustomField6</t>
-  </si>
-  <si>
-    <t>CustomField7</t>
-  </si>
-  <si>
-    <t>CustomField8</t>
-  </si>
-  <si>
-    <t>CustomField9</t>
-  </si>
-  <si>
-    <t>CustomField10</t>
-  </si>
-  <si>
     <t>Vasan</t>
   </si>
   <si>
@@ -112,13 +82,49 @@
   </si>
   <si>
     <t>Ram Nagar,Salem</t>
+  </si>
+  <si>
+    <t>SSLCPercentage</t>
+  </si>
+  <si>
+    <t>SSLCBoardName</t>
+  </si>
+  <si>
+    <t>SSLCPassedOutYear</t>
+  </si>
+  <si>
+    <t>HSCPercentage</t>
+  </si>
+  <si>
+    <t>HSCBoardName</t>
+  </si>
+  <si>
+    <t>HSCPassedOutYear</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>TechnicalSkills</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>DegreePassedOutYear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,12 +133,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,10 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,18 +461,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="9" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,93 +501,105 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2">
         <v>856243789</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>9632587412</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
